--- a/data/M1-IEAP-EMS.xlsx
+++ b/data/M1-IEAP-EMS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/SSDS/enseignement/UFR STAPS/Direction/Outils/celcatreport/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FF89A0-C175-4448-A729-5475704145F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3598A2DB-5F0A-6F4B-AF26-0623B794E5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19720" xr2:uid="{154AE90F-D41B-8B49-BA91-D855BEB6F170}"/>
+    <workbookView xWindow="-38400" yWindow="-3680" windowWidth="38400" windowHeight="20980" xr2:uid="{154AE90F-D41B-8B49-BA91-D855BEB6F170}"/>
   </bookViews>
   <sheets>
     <sheet name="M1-IEAP-EMS" sheetId="1" r:id="rId1"/>
@@ -563,7 +563,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -605,13 +605,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B2">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -620,230 +620,230 @@
         <v>8</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B3">
-        <v>112</v>
+        <v>221</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B4">
-        <v>113</v>
+        <v>222</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B5">
-        <v>121</v>
+        <v>231</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I5">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B6">
-        <v>122</v>
+        <v>232</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>10</v>
       </c>
       <c r="I6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B7">
-        <v>131</v>
+        <v>233</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B8">
-        <v>132</v>
+        <v>251</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>141</v>
+        <v>252</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F9">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I9">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -852,42 +852,42 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>211</v>
+        <v>112</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D11">
         <v>4</v>
       </c>
       <c r="E11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
       <c r="H11">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I11">
         <v>4</v>
@@ -895,22 +895,22 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>212</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -919,207 +919,207 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B13">
-        <v>213</v>
+        <v>121</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I13">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B14">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F14">
         <v>6</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B15">
-        <v>222</v>
+        <v>131</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15">
         <v>8</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B16">
-        <v>231</v>
+        <v>132</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B17">
-        <v>232</v>
+        <v>141</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B19">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F19">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G19">
         <v>2</v>
       </c>
       <c r="H19">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>4</v>
@@ -1127,66 +1127,65 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
       <c r="E20">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20">
         <v>6</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B21">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E21">
         <v>6</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I45">
-    <sortCondition ref="B2:B45"/>
-    <sortCondition ref="A2:A45"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I21">
+    <sortCondition ref="A2:A21"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/M1-IEAP-EMS.xlsx
+++ b/data/M1-IEAP-EMS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/SSDS/enseignement/UFR STAPS/Direction/Outils/celcatreport/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3598A2DB-5F0A-6F4B-AF26-0623B794E5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB45CB0-6EE9-A14D-B173-7F76EC0A3198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-3680" windowWidth="38400" windowHeight="20980" xr2:uid="{154AE90F-D41B-8B49-BA91-D855BEB6F170}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="34200" windowHeight="19700" xr2:uid="{154AE90F-D41B-8B49-BA91-D855BEB6F170}"/>
   </bookViews>
   <sheets>
     <sheet name="M1-IEAP-EMS" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Code Apogée</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t xml:space="preserve">Management, détection, simulation et prévention de la fatigue et santé - Niveau 1 </t>
+  </si>
+  <si>
+    <t>Groupes CM</t>
   </si>
 </sst>
 </file>
@@ -560,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D425352-B3D2-6642-82B3-EC9BD51219AA}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -574,7 +577,7 @@
     <col min="4" max="4" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -591,27 +594,30 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -620,230 +626,254 @@
         <v>8</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>112</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>113</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>121</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>14</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>122</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>131</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
         <v>8</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>8</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3">
-        <v>221</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4">
-        <v>222</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>8</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5">
-        <v>231</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>6</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>6</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6">
-        <v>232</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>10</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7">
-        <v>233</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>6</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B8">
-        <v>251</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
         <v>10</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>6</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B9">
-        <v>252</v>
+        <v>141</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B10">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -852,340 +882,376 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="I10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
       <c r="B11">
-        <v>112</v>
+        <v>211</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D11">
         <v>4</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B12">
-        <v>113</v>
+        <v>212</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14">
+        <v>221</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15">
+        <v>222</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16">
+        <v>231</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>6</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17">
+        <v>232</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18">
+        <v>233</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18">
         <v>3</v>
       </c>
-      <c r="H13">
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>6</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19">
+        <v>241</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
         <v>14</v>
       </c>
-      <c r="I13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14">
-        <v>122</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14">
-        <v>4</v>
-      </c>
-      <c r="F14">
-        <v>6</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
-      <c r="H14">
-        <v>10</v>
-      </c>
-      <c r="I14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15">
-        <v>131</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>4</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="H15">
-        <v>8</v>
-      </c>
-      <c r="I15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16">
-        <v>132</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16">
-        <v>14</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-      <c r="H16">
-        <v>10</v>
-      </c>
-      <c r="I16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17">
-        <v>141</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17">
-        <v>4</v>
-      </c>
-      <c r="E17">
-        <v>8</v>
-      </c>
-      <c r="F17">
-        <v>18</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17">
-        <v>8</v>
-      </c>
-      <c r="I17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>211</v>
-      </c>
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-      <c r="E18">
-        <v>8</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-      <c r="H18">
-        <v>20</v>
-      </c>
-      <c r="I18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19">
-        <v>212</v>
-      </c>
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-      <c r="F19">
-        <v>20</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B20">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
       <c r="E20">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B21">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <v>6</v>
       </c>
       <c r="F21">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I21">
-    <sortCondition ref="A2:A21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J21">
+    <sortCondition ref="B2:B21"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
